--- a/TP1 MOS On_Off.xlsx
+++ b/TP1 MOS On_Off.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itba2-my.sharepoint.com/personal/blin_itba_edu_ar/Documents/Education/ITBA/ITBA - Me/2023A/Electronica IV/TPs/GitHub/TP1-Convertidores-DC-DC-MOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{36840298-F80A-49A2-AFD4-0A121B9163EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EC8AE7D-CD02-48FC-9A09-B2B9E767CFA8}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{36840298-F80A-49A2-AFD4-0A121B9163EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F43093AC-4DFC-4A36-B41A-B6794FE1342D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,6 +302,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,7 +512,7 @@
   <dimension ref="A2:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -516,6 +520,7 @@
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
     <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -632,7 +637,7 @@
         <v>6.8321167883211693E-10</v>
       </c>
       <c r="O3" s="2">
-        <f t="shared" ref="O3:O7" si="4">SUM(L3:N3)</f>
+        <f t="shared" ref="O3:O6" si="4">SUM(L3:N3)</f>
         <v>8.7429482637557672E-10</v>
       </c>
       <c r="P3" s="4">
@@ -694,15 +699,15 @@
         <v>2.0699999999999999E-7</v>
       </c>
       <c r="L4" s="2">
-        <f t="shared" ref="L4:L7" si="7">-J4*LN(1-(G4/B4))</f>
+        <f t="shared" ref="L4:L6" si="7">-J4*LN(1-(G4/B4))</f>
         <v>1.7592009979663423E-9</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M7" si="8">-J4*LN(1-(H4/B4))-L4</f>
+        <f t="shared" ref="M4:M6" si="8">-J4*LN(1-(H4/B4))-L4</f>
         <v>1.5163047746825604E-10</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" ref="N4:N7" si="9">(I4*A4/(B4-H4))</f>
+        <f t="shared" ref="N4:N6" si="9">(I4*A4/(B4-H4))</f>
         <v>6.8321167883211689E-9</v>
       </c>
       <c r="O4" s="2">
@@ -912,7 +917,7 @@
         <v>6.9999999999999992E-8</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="J7:K7" si="16">B7*(D7)</f>
+        <f t="shared" ref="K7" si="16">B7*(D7)</f>
         <v>2.0699999999999999E-7</v>
       </c>
       <c r="L7" s="2">
